--- a/server11/pre_info_new.xlsx
+++ b/server11/pre_info_new.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="704"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="704" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="sales_rep" sheetId="1" r:id="rId1"/>
@@ -941,7 +941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -4979,8 +4979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMG44"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5062,11 +5062,11 @@
         <v>43.38528084</v>
       </c>
       <c r="H2">
-        <v>28.05</v>
+        <v>68.05</v>
       </c>
       <c r="I2">
         <f t="shared" ref="I2:I41" si="0">H2</f>
-        <v>28.05</v>
+        <v>68.05</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -5101,11 +5101,11 @@
         <v>36.441390397500001</v>
       </c>
       <c r="H3">
-        <v>11.55</v>
+        <v>51.55</v>
       </c>
       <c r="I3">
         <f t="shared" si="0"/>
-        <v>11.55</v>
+        <v>51.55</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -5140,11 +5140,11 @@
         <v>39.422577150000002</v>
       </c>
       <c r="H4">
-        <v>16.5</v>
+        <v>56.5</v>
       </c>
       <c r="I4">
         <f t="shared" si="0"/>
-        <v>16.5</v>
+        <v>56.5</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -5218,11 +5218,11 @@
         <v>55.000000000000007</v>
       </c>
       <c r="H6">
-        <v>28.05</v>
+        <v>68.05</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>28.05</v>
+        <v>68.05</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -5257,11 +5257,11 @@
         <v>57.532779150000003</v>
       </c>
       <c r="H7">
-        <v>26.4</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
-        <v>26.4</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -5296,11 +5296,11 @@
         <v>36.300000000000004</v>
       </c>
       <c r="H8">
-        <v>29.7</v>
+        <v>69.7</v>
       </c>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>29.7</v>
+        <v>69.7</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -5374,11 +5374,11 @@
         <v>61.634854710000006</v>
       </c>
       <c r="H10">
-        <v>31.35</v>
+        <v>71.349999999999994</v>
       </c>
       <c r="I10">
         <f t="shared" si="0"/>
-        <v>31.35</v>
+        <v>71.349999999999994</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -5413,11 +5413,11 @@
         <v>37.400000000000006</v>
       </c>
       <c r="H11">
-        <v>13.2</v>
+        <v>53.2</v>
       </c>
       <c r="I11">
         <f t="shared" si="0"/>
-        <v>13.2</v>
+        <v>53.2</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -5452,11 +5452,11 @@
         <v>29.700000000000003</v>
       </c>
       <c r="H12">
-        <v>13.2</v>
+        <v>53.2</v>
       </c>
       <c r="I12">
         <f t="shared" si="0"/>
-        <v>13.2</v>
+        <v>53.2</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -5530,11 +5530,11 @@
         <v>51.227706750000003</v>
       </c>
       <c r="H14">
-        <v>36.299999999999997</v>
+        <v>76.3</v>
       </c>
       <c r="I14">
         <f t="shared" si="0"/>
-        <v>36.299999999999997</v>
+        <v>76.3</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -5569,11 +5569,11 @@
         <v>35.205298837500003</v>
       </c>
       <c r="H15">
-        <v>18.149999999999999</v>
+        <v>58.15</v>
       </c>
       <c r="I15">
         <f t="shared" si="0"/>
-        <v>18.149999999999999</v>
+        <v>58.15</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -5608,11 +5608,11 @@
         <v>30.800000000000004</v>
       </c>
       <c r="H16">
-        <v>14.85</v>
+        <v>54.85</v>
       </c>
       <c r="I16">
         <f t="shared" si="0"/>
-        <v>14.85</v>
+        <v>54.85</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -5686,11 +5686,11 @@
         <v>37.400000000000006</v>
       </c>
       <c r="H18">
-        <v>26.4</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="I18">
         <f t="shared" si="0"/>
-        <v>26.4</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -5725,11 +5725,11 @@
         <v>43.779192600000009</v>
       </c>
       <c r="H19">
-        <v>21.45</v>
+        <v>61.45</v>
       </c>
       <c r="I19">
         <f t="shared" si="0"/>
-        <v>21.45</v>
+        <v>61.45</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -5764,11 +5764,11 @@
         <v>39.6</v>
       </c>
       <c r="H20">
-        <v>18.149999999999999</v>
+        <v>58.15</v>
       </c>
       <c r="I20">
         <f t="shared" si="0"/>
-        <v>18.149999999999999</v>
+        <v>58.15</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -5842,11 +5842,11 @@
         <v>40.117746157500008</v>
       </c>
       <c r="H22">
-        <v>34.65</v>
+        <v>74.650000000000006</v>
       </c>
       <c r="I22">
         <f t="shared" si="0"/>
-        <v>34.65</v>
+        <v>74.650000000000006</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -5881,11 +5881,11 @@
         <v>48.783112702499999</v>
       </c>
       <c r="H23">
-        <v>29.7</v>
+        <v>69.7</v>
       </c>
       <c r="I23">
         <f t="shared" si="0"/>
-        <v>29.7</v>
+        <v>69.7</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -5920,11 +5920,11 @@
         <v>36.300000000000004</v>
       </c>
       <c r="H24">
-        <v>19.8</v>
+        <v>59.8</v>
       </c>
       <c r="I24">
         <f t="shared" si="0"/>
-        <v>19.8</v>
+        <v>59.8</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -5998,11 +5998,11 @@
         <v>58.370240115000009</v>
       </c>
       <c r="H26">
-        <v>34.65</v>
+        <v>74.650000000000006</v>
       </c>
       <c r="I26">
         <f t="shared" si="0"/>
-        <v>34.65</v>
+        <v>74.650000000000006</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -6037,11 +6037,11 @@
         <v>24.771683475000003</v>
       </c>
       <c r="H27">
-        <v>14.85</v>
+        <v>54.85</v>
       </c>
       <c r="I27">
         <f t="shared" si="0"/>
-        <v>14.85</v>
+        <v>54.85</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -6076,11 +6076,11 @@
         <v>42.900000000000006</v>
       </c>
       <c r="H28">
-        <v>14.85</v>
+        <v>54.85</v>
       </c>
       <c r="I28">
         <f t="shared" si="0"/>
-        <v>14.85</v>
+        <v>54.85</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -6154,11 +6154,11 @@
         <v>51.7</v>
       </c>
       <c r="H30">
-        <v>34.65</v>
+        <v>74.650000000000006</v>
       </c>
       <c r="I30">
         <f t="shared" si="0"/>
-        <v>34.65</v>
+        <v>74.650000000000006</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -6193,11 +6193,11 @@
         <v>39.6</v>
       </c>
       <c r="H31">
-        <v>23.1</v>
+        <v>63.1</v>
       </c>
       <c r="I31">
         <f t="shared" si="0"/>
-        <v>23.1</v>
+        <v>63.1</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -6232,11 +6232,11 @@
         <v>38.5</v>
       </c>
       <c r="H32">
-        <v>26.4</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="I32">
         <f t="shared" si="0"/>
-        <v>26.4</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -6310,11 +6310,11 @@
         <v>45.56127312000001</v>
       </c>
       <c r="H34">
-        <v>44.55</v>
+        <v>84.55</v>
       </c>
       <c r="I34">
         <f t="shared" si="0"/>
-        <v>44.55</v>
+        <v>84.55</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -6349,11 +6349,11 @@
         <v>45.761628495000004</v>
       </c>
       <c r="H35">
-        <v>19.8</v>
+        <v>59.8</v>
       </c>
       <c r="I35">
         <f t="shared" si="0"/>
-        <v>19.8</v>
+        <v>59.8</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -6388,11 +6388,11 @@
         <v>38.5</v>
       </c>
       <c r="H36">
-        <v>26.4</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="I36">
         <f t="shared" si="0"/>
-        <v>26.4</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -6466,11 +6466,11 @@
         <v>35.812340519999999</v>
       </c>
       <c r="H38">
-        <v>31.35</v>
+        <v>71.349999999999994</v>
       </c>
       <c r="I38">
         <f t="shared" si="0"/>
-        <v>31.35</v>
+        <v>71.349999999999994</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -6505,11 +6505,11 @@
         <v>31.900000000000002</v>
       </c>
       <c r="H39">
-        <v>16.5</v>
+        <v>56.5</v>
       </c>
       <c r="I39">
         <f t="shared" si="0"/>
-        <v>16.5</v>
+        <v>56.5</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -6544,11 +6544,11 @@
         <v>33</v>
       </c>
       <c r="H40">
-        <v>24.75</v>
+        <v>64.75</v>
       </c>
       <c r="I40">
         <f t="shared" si="0"/>
-        <v>24.75</v>
+        <v>64.75</v>
       </c>
       <c r="J40">
         <v>0</v>
